--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/ParameterFree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9EBE94-AF94-8C41-8162-CC3A6EF8FB25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6130A2C4-C0D1-C846-B1BB-DB096427416C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{4AE0BA1B-4119-4C41-9752-FB5FA6623A51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>pf</t>
   </si>
@@ -40,19 +40,52 @@
   </si>
   <si>
     <t>pf4</t>
+  </si>
+  <si>
+    <t>pf5</t>
+  </si>
+  <si>
+    <t>x*sig(x)</t>
+  </si>
+  <si>
+    <t>sig(a*sim)</t>
+  </si>
+  <si>
+    <t>sig(sim)</t>
+  </si>
+  <si>
+    <t>sig(A*sim+B)</t>
+  </si>
+  <si>
+    <t>pf7</t>
+  </si>
+  <si>
+    <t>pf6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = sge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =sge,but min-max, not normalization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,15 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C994E388-4B0D-5148-821C-6D27A8EE8F1F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +449,11 @@
       <c r="D1">
         <v>93.439099999999996</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -426,8 +466,11 @@
       <c r="D2">
         <v>93.354399999999998</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -439,6 +482,60 @@
       </c>
       <c r="D3">
         <v>92.8005</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>76.878600000000006</v>
+      </c>
+      <c r="D4">
+        <v>93.461699999999993</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>77.3857</v>
+      </c>
+      <c r="D5">
+        <v>93.709900000000005</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>76.744792000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>93.235200000000006</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/ParameterFree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6130A2C4-C0D1-C846-B1BB-DB096427416C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE3101-2002-5842-BE5B-D431E774668A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{4AE0BA1B-4119-4C41-9752-FB5FA6623A51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>pf</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t xml:space="preserve"> =sge,but min-max, not normalization</t>
+  </si>
+  <si>
+    <t>pf8</t>
+  </si>
+  <si>
+    <t>pf9</t>
+  </si>
+  <si>
+    <t>temp3</t>
+  </si>
+  <si>
+    <t>[1,4,8] no normalization</t>
+  </si>
+  <si>
+    <t>[1,4,8] + normalization</t>
+  </si>
+  <si>
+    <t>temp4</t>
+  </si>
+  <si>
+    <t>pf10</t>
+  </si>
+  <si>
+    <t>[1,2,4] + normalization</t>
   </si>
 </sst>
 </file>
@@ -425,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C994E388-4B0D-5148-821C-6D27A8EE8F1F}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,6 +562,39 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/ParameterFree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE3101-2002-5842-BE5B-D431E774668A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738C8504-F3F9-6647-9A93-DD9A20D33234}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{4AE0BA1B-4119-4C41-9752-FB5FA6623A51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>pf</t>
   </si>
@@ -91,13 +91,19 @@
   </si>
   <si>
     <t>[1,2,4] + normalization</t>
+  </si>
+  <si>
+    <t>[1,2,4] + normalization for over 4 2</t>
+  </si>
+  <si>
+    <t>pf11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +116,13 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C994E388-4B0D-5148-821C-6D27A8EE8F1F}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,19 +543,19 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>77.3857</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>93.709900000000005</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -569,6 +583,12 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
+      <c r="C7">
+        <v>76.416600000000003</v>
+      </c>
+      <c r="D7">
+        <v>93.104600000000005</v>
+      </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
@@ -593,6 +613,17 @@
       </c>
       <c r="E9" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/ParameterFree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738C8504-F3F9-6647-9A93-DD9A20D33234}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3C38E3-B0D8-514E-92C3-9798FB5A88E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{4AE0BA1B-4119-4C41-9752-FB5FA6623A51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>pf</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>pf11</t>
+  </si>
+  <si>
+    <t>pf12</t>
+  </si>
+  <si>
+    <t>pf13</t>
+  </si>
+  <si>
+    <t>on pf10, cosine_similarity</t>
+  </si>
+  <si>
+    <t>on pf12, group=32</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C994E388-4B0D-5148-821C-6D27A8EE8F1F}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,6 +612,12 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8">
+        <v>77.084000000000003</v>
+      </c>
+      <c r="D8">
+        <v>93.589699999999993</v>
+      </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
@@ -624,6 +642,28 @@
       </c>
       <c r="E10" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/ParameterFree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3C38E3-B0D8-514E-92C3-9798FB5A88E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098F3F16-9245-2E4F-A644-0EA314F76BDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{4AE0BA1B-4119-4C41-9752-FB5FA6623A51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>pf</t>
   </si>
@@ -105,10 +105,62 @@
     <t>pf13</t>
   </si>
   <si>
-    <t>on pf10, cosine_similarity</t>
-  </si>
-  <si>
     <t>on pf12, group=32</t>
+  </si>
+  <si>
+    <t>pf14</t>
+  </si>
+  <si>
+    <t>temp5</t>
+  </si>
+  <si>
+    <t>not good as 10,
+ from the training loss</t>
+  </si>
+  <si>
+    <t>on pf10, cosine_similarity (for ablation)</t>
+  </si>
+  <si>
+    <t>pf15</t>
+  </si>
+  <si>
+    <t>pf16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on pf12, group=16 </t>
+  </si>
+  <si>
+    <t>on pf10, group=32</t>
+  </si>
+  <si>
+    <t>on pf10, group=16</t>
+  </si>
+  <si>
+    <t>pf17</t>
+  </si>
+  <si>
+    <t>pf18</t>
+  </si>
+  <si>
+    <t>temp6</t>
+  </si>
+  <si>
+    <t>on pf10, g=8</t>
+  </si>
+  <si>
+    <t>on pf10, g=128</t>
+  </si>
+  <si>
+    <t>retina pf10</t>
+  </si>
+  <si>
+    <t>cascade pf10</t>
+  </si>
+  <si>
+    <t>temp7</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -157,10 +209,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +234,1348 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>top-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>76.834199999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.898200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.010099999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.313699999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.952100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C69A-EF42-BA21-DD0537B53196}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>top-1 baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>75.8947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.8947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.8947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.8947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.8947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C69A-EF42-BA21-DD0537B53196}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1830473232"/>
+        <c:axId val="1797680176"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>top-5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>93.403400000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.452299999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.560199999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.648899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.350399999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C69A-EF42-BA21-DD0537B53196}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>top-5 baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>92.722399999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.722399999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.722399999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.722399999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.722399999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C69A-EF42-BA21-DD0537B53196}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1797668464"/>
+        <c:axId val="1783306592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1830473232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Group number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797680176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1797680176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="77.8"/>
+          <c:min val="75.599999999999994"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Top-1 accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830473232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1783306592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="93.8"/>
+          <c:min val="92.3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Top-5 accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797668464"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.30000000000000004"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1797668464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1783306592"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8C3631-338E-A548-A04E-2426EC84FD70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C994E388-4B0D-5148-821C-6D27A8EE8F1F}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +1886,7 @@
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +1903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -519,8 +1919,23 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>76.834199999999996</v>
+      </c>
+      <c r="H2">
+        <v>93.403400000000005</v>
+      </c>
+      <c r="I2">
+        <v>75.8947</v>
+      </c>
+      <c r="J2">
+        <v>92.722399999999993</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -536,8 +1951,23 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>76.898200000000003</v>
+      </c>
+      <c r="H3">
+        <v>93.452299999999994</v>
+      </c>
+      <c r="I3">
+        <v>75.8947</v>
+      </c>
+      <c r="J3">
+        <v>92.722399999999993</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -553,8 +1983,23 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>77.010099999999994</v>
+      </c>
+      <c r="H4">
+        <v>93.560199999999995</v>
+      </c>
+      <c r="I4">
+        <v>75.8947</v>
+      </c>
+      <c r="J4">
+        <v>92.722399999999993</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -570,8 +2015,23 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>77.313699999999997</v>
+      </c>
+      <c r="H5">
+        <v>93.648899999999998</v>
+      </c>
+      <c r="I5">
+        <v>75.8947</v>
+      </c>
+      <c r="J5">
+        <v>92.722399999999993</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -587,8 +2047,23 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
+      <c r="F6">
+        <v>128</v>
+      </c>
+      <c r="G6" s="1">
+        <v>76.952100000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>93.350399999999993</v>
+      </c>
+      <c r="I6">
+        <v>75.8947</v>
+      </c>
+      <c r="J6">
+        <v>92.722399999999993</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -605,7 +2080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -622,51 +2097,177 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>77.313699999999997</v>
+      </c>
+      <c r="D9">
+        <v>93.648899999999998</v>
+      </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10">
+        <v>76.937100000000001</v>
+      </c>
+      <c r="D10">
+        <v>93.419499999999999</v>
+      </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="C11">
+        <v>77.195899999999995</v>
+      </c>
+      <c r="D11">
+        <v>93.456299999999999</v>
+      </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>77.010099999999994</v>
+      </c>
+      <c r="D14">
+        <v>93.560199999999995</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>76.898200000000003</v>
+      </c>
+      <c r="D15">
+        <v>93.452299999999994</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>76.834199999999996</v>
+      </c>
+      <c r="D16">
+        <v>93.403400000000005</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1">
+        <v>76.952100000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>93.350399999999993</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C12:D13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>